--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_ControlAppearance.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_ControlAppearance.xlsx
@@ -1045,7 +1045,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_ControlAppearance.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_ControlAppearance.xlsx
@@ -235,44 +235,8 @@
 MinimizeButton functionality Test</t>
   </si>
   <si>
-    <t>validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : Control &amp; Appearance
-};
-validate3
-{
-validate_Text_Exists=VT187-1627
-};
-validate4
-{
-validate_AppMinimized=homescreen
-};</t>
-  </si>
-  <si>
     <t>Note: Run this test with Javascript object.
 QuitButton functionality Test</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : Control &amp; Appearance
-};
-validate3
-{
-validate_Text_Exists=VT187-1639
-};
-validate4
-{
-validate_AppMinimized=homescreen
-};</t>
   </si>
   <si>
     <t>Note: Run this test with Javascript object.
@@ -557,6 +521,42 @@
 wait(10);
 SwitchApp(WEBVIEW);
 validate2;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : Control &amp; Appearance
+};
+validate3
+{
+validate_Text_Exists=VT187-1627
+};
+validate4
+{
+validate_AppMinimized=com.symbol.enterprisebrowser
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : Control &amp; Appearance
+};
+validate3
+{
+validate_Text_Exists=VT187-1639
+};
+validate4
+{
+validate_AppMinimized=com.symbol.enterprisebrowser
+};</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1229,10 +1229,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1258,10 +1258,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1296,7 +1296,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="217.5" thickBot="1">
+    <row r="9" spans="1:11" ht="230.25" thickBot="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1316,16 +1316,16 @@
         <v>1</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="217.5" thickBot="1">
+    <row r="10" spans="1:11" ht="230.25" thickBot="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1339,16 +1339,16 @@
         <v>10</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1368,16 +1368,16 @@
         <v>10</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1397,16 +1397,16 @@
         <v>10</v>
       </c>
       <c r="E12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1426,16 +1426,16 @@
         <v>10</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1455,16 +1455,16 @@
         <v>10</v>
       </c>
       <c r="E14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>42</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_ControlAppearance.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_ControlAppearance.xlsx
@@ -500,6 +500,42 @@
 };</t>
   </si>
   <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : Control &amp; Appearance
+};
+validate3
+{
+validate_Text_Exists=VT187-1627
+};
+validate4
+{
+validate_AppMinimized=com.symbol.enterprisebrowser
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : Control &amp; Appearance
+};
+validate3
+{
+validate_Text_Exists=VT187-1639
+};
+validate4
+{
+validate_AppMinimized=com.symbol.enterprisebrowser
+};</t>
+  </si>
+  <si>
     <t>wait(2);
 validate1;
 link_Click(controlappearance_test_link);
@@ -515,48 +551,12 @@
 SwitchApp(NATIVE_APP);
 ClickNativeIcon(VT187_1581_Back_xpath);
 wait(10);
-TakeScreenshot(VT187_1593);
-validate5;
 ClickNativeIcon(VT187_1593_Forward_xpath);
 wait(10);
 SwitchApp(WEBVIEW);
-validate2;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : Control &amp; Appearance
-};
-validate3
-{
-validate_Text_Exists=VT187-1627
-};
-validate4
-{
-validate_AppMinimized=com.symbol.enterprisebrowser
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : Control &amp; Appearance
-};
-validate3
-{
-validate_Text_Exists=VT187-1639
-};
-validate4
-{
-validate_AppMinimized=com.symbol.enterprisebrowser
-};</t>
+validate2;
+TakeScreenshot(VT187_1593);
+validate5;</t>
   </si>
 </sst>
 </file>
@@ -1045,9 +1045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1229,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>46</v>
@@ -1319,7 +1317,7 @@
         <v>32</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1348,7 +1346,7 @@
         <v>31</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
